--- a/Porbandar.xlsx
+++ b/Porbandar.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28521"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gmb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B65A2778-60A5-447E-AC86-D45ED0AB74B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5679EC1C-8CD4-46A2-8545-46736D84759B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{6E10F240-58ED-4EA5-AD8B-CD27BE5C8B76}"/>
   </bookViews>
   <sheets>
     <sheet name="Porbandar" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="95">
   <si>
     <t>Port name</t>
   </si>
@@ -195,66 +184,16 @@
     <t>Berths</t>
   </si>
   <si>
-    <t xml:space="preserve">Bulk = Limestone, Coal, Cement/Liquid = LPG/General Cargo = Sugar, Rice, Groundnuts, Other Food Grains/General Cargo = Sugar, Rice, Groundnuts, Other Food Grains
-</t>
-  </si>
-  <si>
     <t>8 metres at the moment.</t>
   </si>
   <si>
-    <t xml:space="preserve">1.Vessels’ with maximum 200 Mtrs LOA can be berthed,2. Vessels’ with maximum 150 Mtrs LOA can be berthed at SCL Jetty.However maximum length of vessel which can be berthed may be reduced in case both berths are occupied simultaneaously.
-at GMB Deep Water Berth Jetty
-</t>
-  </si>
-  <si>
     <t>4.6 MMTPA</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t xml:space="preserve">(1) M/s Harish A. Pandya, Gandhidham,(2) M/s Revolution Petrochem LLP, Gandhidham,(3) M/s Vishwa Trade Inc, Gandhidham
-</t>
-  </si>
-  <si>
     <t>Various</t>
-  </si>
-  <si>
-    <t>(1) M/s Velji P &amp; Sons (Agencies) PVT LTD,        (2) ST Shipping Services,                                             (3) Kingman Marine Private Ltd,                               (4) Seaworld Shipping &amp; Logistics Pvt Ltd.
-(5) Port &amp; Sea Expert shipping pvt. ltd.                 (6) Dariya Shipping Agencies Pvt. Ltd.                   (7)Keyur Shipping(Dhows only)                                 (8)Omkara Shipping(Dhows Only)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1) M/s Velji P &amp; Sons (Agencies) PVT LTD, Porbandar                                (2) M/s Sourashtra Cement Ltd. Ranavav                           (3) M/s Keyur shipping        (4) M/s Omkara Shipping.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1) M/s Velji P &amp; Sons (Agencies) PVT LTD, Porbandar(2) M/s Omkar Shipping, Porbandar(3) M/s Ladhu Keshav Lodhari, Porbandar
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1) M/s Velji P &amp; Sons (Agencies) PVT LTD, Porbandar(2) M/s Omkar Shipping, Porbandar(3) M/s Ladhu Keshav Lodhari, Porbandar
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1) M/s Diamond Transport, Porbandar(2) M/s JJ Transport, Porbandar
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">(1) GMB Berth = 1. GMB Deep Water Berth Jetty. 2.Finger Jetty                           (2) Private berth = SCL Jetty                      (3) Other = 1. IN-GMB Jetty,2. Coastguard Jetty
-</t>
-  </si>
-  <si>
-    <t>Bulk = Limestone, Coal, Cement/Liquid = LPG/General Cargo = Sugar, Rice, Groundnuts, Other Food Grains/General Cargo = Sugar, Rice, Groundnuts, Other Food Grains</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Vessels’ with maximum 8 Mtrs draft can be berthed                              2. Vessels’ with maximum 8 Mtrs draft can be berthed at SCL Jetty
-at GMB Deep Water Berth Jetty
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Vessels’ with maximum 200 Mtrs LOA can be berthed                                     2. Vessels’ with maximum 150 Mtrs LOA can be berthed at SCL Jetty
-at GMB Deep Water Berth Jetty
-</t>
   </si>
   <si>
     <t>Overall capacity of port = 4.6 MMTPA</t>
@@ -272,9 +211,6 @@
   <si>
     <t>Phone: 0286 2242404
 Email: gmbporbandar@gmail.com</t>
-  </si>
-  <si>
-    <t>Channel No. 14 , Channel No.16</t>
   </si>
   <si>
     <t>Emergency Contact No: 0286 2242404
@@ -300,23 +236,76 @@
     <t>2132 sq. metres.</t>
   </si>
   <si>
+    <t>The port is accessed via a road approximately 4 km from the
+nearest NH 51 (NH 8E).</t>
+  </si>
+  <si>
+    <t>Private Jetty</t>
+  </si>
+  <si>
+    <t>SAURASTRA Cement Co.</t>
+  </si>
+  <si>
+    <t>Private-PPP-BOT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bulk = Limestone, Coal, Cement/Liquid = LPG/General Cargo = Sugar, Rice, Groundnuts, Other Food Grains/General Cargo = Sugar, Rice, Groundnuts, Other Food Grains
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.Vessels’ with maximum 200 Mtrs LOA can be berthed,2. Vessels’ with maximum 150 Mtrs LOA can be berthed at SCL Jetty.However maximum length of vessel which can be berthed may be reduced in case both berths are occupied simultaneaously.
+at GMB Deep Water Berth Jetty
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) M/s Harish A. Pandya, Gandhidham,(2) M/s Revolution Petrochem LLP, Gandhidham,(3) M/s Vishwa Trade Inc, Gandhidham
+</t>
+  </si>
+  <si>
+    <t>(1) M/s Velji P &amp; Sons (Agencies) PVT LTD,        (2) ST Shipping Services,                                             (3) Kingman Marine Private Ltd,                               (4) Seaworld Shipping &amp; Logistics Pvt Ltd.
+(5) Port &amp; Sea Expert shipping pvt. ltd.                 (6) Dariya Shipping Agencies Pvt. Ltd.                   (7)Keyur Shipping(Dhows only)                                 (8)Omkara Shipping(Dhows Only)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) M/s Velji P &amp; Sons (Agencies) PVT LTD, Porbandar                                (2) M/s Sourashtra Cement Ltd. Ranavav                           (3) M/s Keyur shipping        (4) M/s Omkara Shipping.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) M/s Velji P &amp; Sons (Agencies) PVT LTD, Porbandar(2) M/s Omkar Shipping, Porbandar(3) M/s Ladhu Keshav Lodhari, Porbandar
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1) M/s Velji P &amp; Sons (Agencies) PVT LTD, Porbandar(2) M/s Omkar Shipping, Porbandar(3) M/s Ladhu Keshav Lodhari, Porbandar
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) M/s Diamond Transport, Porbandar(2) M/s JJ Transport, Porbandar
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(1) GMB Berth = 1. GMB Deep Water Berth Jetty. 2.Finger Jetty                           (2) Private berth = SCL Jetty                      (3) Other = 1. IN-GMB Jetty,2. Coastguard Jetty
+</t>
+  </si>
+  <si>
+    <t>Bulk = Limestone, Coal, Cement/Liquid = LPG/General Cargo = Sugar, Rice, Groundnuts, Other Food Grains/General Cargo = Sugar, Rice, Groundnuts, Other Food Grains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Vessels’ with maximum 8 Mtrs draft can be berthed                              2. Vessels’ with maximum 8 Mtrs draft can be berthed at SCL Jetty
+at GMB Deep Water Berth Jetty
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Vessels’ with maximum 200 Mtrs LOA can be berthed                                     2. Vessels’ with maximum 150 Mtrs LOA can be berthed at SCL Jetty
+at GMB Deep Water Berth Jetty
+</t>
+  </si>
+  <si>
+    <t>Channel No. 14 , Channel No.16</t>
+  </si>
+  <si>
     <t xml:space="preserve">2 Silos with total capacity of 17000 MT for storage of cement ,                                                     6 Liquid Storage Tanks with total capacity of 7932 MT for storage of LPG cargo in Javar Area. (Same belongs to Private operators M/s SHV Energy Pvt. Ltd)
 at SCL Jetty. (Same belongs to private operator M/s
 Saurashtra Cement Limited).
 </t>
-  </si>
-  <si>
-    <t>The port is accessed via a road approximately 4 km from the
-nearest NH 51 (NH 8E).</t>
-  </si>
-  <si>
-    <t>Private Jetty</t>
-  </si>
-  <si>
-    <t>SAURASTRA Cement Co.</t>
-  </si>
-  <si>
-    <t>Private-PPP-BOT</t>
   </si>
   <si>
     <t xml:space="preserve">Bulk = Limestone, Coal, Cement, Liquid = LPG,  General Cargo = Sugar ,Rice ,Groundnuts, Other Food Grains 
@@ -361,7 +350,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -846,63 +835,63 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E6723AA-BB3C-40F0-B3B3-C1E64A1815B8}">
   <sheetPr codeName="Sheet6"/>
-  <dimension ref="A1:AT4"/>
+  <dimension ref="A1:AT3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" zoomScale="73" zoomScaleNormal="73" workbookViewId="0">
+      <selection activeCell="D2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.45"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" customWidth="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" customWidth="1"/>
-    <col min="7" max="7" width="24.7109375" customWidth="1"/>
-    <col min="8" max="8" width="20.28515625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" customWidth="1"/>
+    <col min="1" max="1" width="13.81640625" customWidth="1"/>
+    <col min="2" max="2" width="13.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.7265625" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" customWidth="1"/>
+    <col min="5" max="5" width="24.26953125" customWidth="1"/>
+    <col min="6" max="6" width="21.7265625" customWidth="1"/>
+    <col min="7" max="7" width="24.7265625" customWidth="1"/>
+    <col min="8" max="8" width="20.26953125" customWidth="1"/>
+    <col min="9" max="9" width="16.26953125" customWidth="1"/>
     <col min="10" max="10" width="22" customWidth="1"/>
-    <col min="11" max="11" width="40.7109375" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" customWidth="1"/>
-    <col min="13" max="13" width="41.7109375" customWidth="1"/>
-    <col min="14" max="14" width="21.140625" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" customWidth="1"/>
+    <col min="11" max="11" width="40.7265625" customWidth="1"/>
+    <col min="12" max="12" width="19.81640625" customWidth="1"/>
+    <col min="13" max="13" width="41.7265625" customWidth="1"/>
+    <col min="14" max="14" width="21.1796875" customWidth="1"/>
+    <col min="15" max="15" width="15.453125" customWidth="1"/>
     <col min="16" max="16" width="15" customWidth="1"/>
-    <col min="17" max="17" width="18.85546875" customWidth="1"/>
-    <col min="18" max="18" width="16.28515625" customWidth="1"/>
-    <col min="19" max="19" width="15.140625" customWidth="1"/>
-    <col min="20" max="20" width="38.7109375" customWidth="1"/>
-    <col min="21" max="21" width="22.7109375" customWidth="1"/>
-    <col min="22" max="22" width="31.28515625" customWidth="1"/>
-    <col min="23" max="23" width="20.7109375" customWidth="1"/>
+    <col min="17" max="17" width="18.81640625" customWidth="1"/>
+    <col min="18" max="18" width="16.26953125" customWidth="1"/>
+    <col min="19" max="19" width="15.1796875" customWidth="1"/>
+    <col min="20" max="20" width="38.7265625" customWidth="1"/>
+    <col min="21" max="21" width="22.7265625" customWidth="1"/>
+    <col min="22" max="22" width="31.26953125" customWidth="1"/>
+    <col min="23" max="23" width="20.7265625" customWidth="1"/>
     <col min="24" max="24" width="25" customWidth="1"/>
-    <col min="25" max="25" width="28.7109375" customWidth="1"/>
-    <col min="26" max="26" width="32.28515625" customWidth="1"/>
-    <col min="27" max="27" width="25.140625" customWidth="1"/>
-    <col min="28" max="28" width="28.7109375" customWidth="1"/>
+    <col min="25" max="25" width="28.7265625" customWidth="1"/>
+    <col min="26" max="26" width="32.26953125" customWidth="1"/>
+    <col min="27" max="27" width="25.1796875" customWidth="1"/>
+    <col min="28" max="28" width="28.7265625" customWidth="1"/>
     <col min="29" max="29" width="31" customWidth="1"/>
-    <col min="30" max="30" width="24.28515625" customWidth="1"/>
-    <col min="31" max="31" width="18.7109375" customWidth="1"/>
+    <col min="30" max="30" width="24.26953125" customWidth="1"/>
+    <col min="31" max="31" width="18.7265625" customWidth="1"/>
     <col min="32" max="32" width="24" customWidth="1"/>
-    <col min="33" max="33" width="31.140625" customWidth="1"/>
-    <col min="34" max="34" width="24.7109375" customWidth="1"/>
-    <col min="35" max="35" width="19.7109375" customWidth="1"/>
-    <col min="36" max="36" width="19.140625" customWidth="1"/>
+    <col min="33" max="33" width="31.1796875" customWidth="1"/>
+    <col min="34" max="34" width="24.7265625" customWidth="1"/>
+    <col min="35" max="35" width="19.7265625" customWidth="1"/>
+    <col min="36" max="36" width="19.1796875" customWidth="1"/>
     <col min="37" max="37" width="15" customWidth="1"/>
-    <col min="38" max="38" width="23.5703125" customWidth="1"/>
-    <col min="39" max="39" width="21.5703125" customWidth="1"/>
-    <col min="40" max="40" width="14.7109375" customWidth="1"/>
-    <col min="41" max="41" width="12.42578125" customWidth="1"/>
-    <col min="42" max="42" width="16.28515625" customWidth="1"/>
-    <col min="43" max="43" width="20.28515625" customWidth="1"/>
-    <col min="44" max="44" width="35.7109375" customWidth="1"/>
-    <col min="45" max="45" width="23.28515625" customWidth="1"/>
-    <col min="46" max="46" width="15.7109375" customWidth="1"/>
+    <col min="38" max="38" width="23.54296875" customWidth="1"/>
+    <col min="39" max="39" width="21.54296875" customWidth="1"/>
+    <col min="40" max="40" width="14.7265625" customWidth="1"/>
+    <col min="41" max="41" width="12.453125" customWidth="1"/>
+    <col min="42" max="42" width="16.26953125" customWidth="1"/>
+    <col min="43" max="43" width="20.26953125" customWidth="1"/>
+    <col min="44" max="44" width="35.7265625" customWidth="1"/>
+    <col min="45" max="45" width="23.26953125" customWidth="1"/>
+    <col min="46" max="46" width="15.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="31.5" customHeight="1">
+    <row r="1" spans="1:46" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -1042,7 +1031,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="2" spans="1:46" ht="182.45" customHeight="1">
+    <row r="2" spans="1:46" ht="182.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="15" t="s">
         <v>44</v>
       </c>
@@ -1074,135 +1063,129 @@
         <v>51</v>
       </c>
       <c r="K2" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="L2" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="M2" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="O2" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="P2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="T2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="U2" s="12" t="s">
+        <v>75</v>
+      </c>
+      <c r="V2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="W2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y2" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="Z2" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="AA2" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="AB2" s="13" t="s">
+        <v>81</v>
+      </c>
+      <c r="AC2" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="AD2" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="P2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q2" s="10" t="s">
+      <c r="AE2" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="R2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="S2" s="4" t="s">
+      <c r="AF2" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="AG2" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="AH2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="AI2" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="AJ2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="W2" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="X2" s="11" t="s">
+      <c r="AK2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="Y2" s="11" t="s">
+      <c r="AL2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="AM2" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AN2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AO2" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP2" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AQ2" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="AC2" s="13" t="s">
+      <c r="AR2" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="AS2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="AD2" s="1" t="s">
+      <c r="AT2" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:46" ht="116" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="15"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="5" t="s">
         <v>68</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>69</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="AG2" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="AI2" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="AN2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AO2" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="AP2" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AQ2" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AR2" s="14" t="s">
-        <v>80</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="AT2" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:46" ht="116.1" customHeight="1">
-      <c r="A3" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>83</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>47</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>49</v>
@@ -1217,31 +1200,31 @@
         <v>85</v>
       </c>
       <c r="L3" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M3" s="10" t="s">
         <v>86</v>
       </c>
       <c r="N3" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="O3" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="P3" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q3" s="10" t="s">
         <v>87</v>
       </c>
       <c r="R3" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="S3" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="T3" s="11" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="U3" s="11" t="s">
         <v>88</v>
@@ -1250,7 +1233,7 @@
         <v>89</v>
       </c>
       <c r="W3" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="X3" s="11" t="s">
         <v>90</v>
@@ -1262,68 +1245,72 @@
         <v>92</v>
       </c>
       <c r="AA3" s="13" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AB3" s="13" t="s">
         <v>93</v>
       </c>
       <c r="AC3" s="13" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="AE3" s="2" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="AF3" s="1" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="AG3" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="AH3" s="1" t="s">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="AI3" s="13" t="s">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="AJ3" s="1" t="s">
-        <v>74</v>
+        <v>61</v>
       </c>
       <c r="AK3" s="1" t="s">
-        <v>75</v>
+        <v>62</v>
       </c>
       <c r="AL3" s="1" t="s">
-        <v>76</v>
+        <v>63</v>
       </c>
       <c r="AM3" s="1" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="AN3" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AO3" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AP3" s="2" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="AQ3" s="2" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="AR3" s="14" t="s">
         <v>94</v>
       </c>
       <c r="AS3" s="1" t="s">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AT3" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:46" ht="15"/>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
